--- a/biology/Médecine/Ligament_talo-fibulaire_antérieur/Ligament_talo-fibulaire_antérieur.xlsx
+++ b/biology/Médecine/Ligament_talo-fibulaire_antérieur/Ligament_talo-fibulaire_antérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_talo-fibulaire_ant%C3%A9rieur</t>
+          <t>Ligament_talo-fibulaire_antérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament talo-fibulaire antérieur (ou ligament péronéo-astragalien antérieur) est un ligament de la face latérale l'articulation talo-crurale formant le faisceau antérieur du ligament collatéral latéral de l'articulation talo-crurale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_talo-fibulaire_ant%C3%A9rieur</t>
+          <t>Ligament_talo-fibulaire_antérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament talo-fibulaire antérieur part du bord antérieur de la malléole latérale, passent en avant et médialement pour s'insérer à la face latérale du talus, au niveau du col du talus, devant la facette malléolaire latérale du talus facette articulaire latérale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_talo-fibulaire_ant%C3%A9rieur</t>
+          <t>Ligament_talo-fibulaire_antérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament talo-fibulaire antérieur empêche le pied de glisser vers l'avant par rapport au tibia.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_talo-fibulaire_ant%C3%A9rieur</t>
+          <t>Ligament_talo-fibulaire_antérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament talo-fibulaire antérieur est le ligament le plus souvent blessé dans une entorse de la cheville à la suite d'une blessure d'inversion.permettra
 Si le ligament est complétement déchiré le test de tiroir antérieur de la cheville sera positif.
